--- a/data/outputs/数学期刊(下)_altmetric/73Lithuanian Mathematical Journal.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/73Lithuanian Mathematical Journal.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE40"/>
+  <dimension ref="A1:CF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1794,6 +1808,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2031,6 +2048,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2274,6 +2294,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2533,6 +2556,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3039,6 +3068,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3298,6 +3330,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3537,6 +3572,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3790,6 +3828,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4036,6 +4077,9 @@
       </c>
       <c r="CE14" t="n">
         <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -4278,6 +4322,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4525,6 +4572,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4764,6 +4814,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5035,6 +5088,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5294,6 +5350,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5553,6 +5612,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5796,6 +5858,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6039,6 +6104,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6286,6 +6354,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6529,6 +6600,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6772,6 +6846,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7015,6 +7092,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7256,6 +7336,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7501,6 +7584,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7746,6 +7832,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7989,6 +8078,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8232,6 +8324,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8477,6 +8572,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8720,6 +8818,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8959,6 +9060,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9200,6 +9304,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9449,6 +9556,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9708,6 +9818,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9957,6 +10070,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10184,6 +10300,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10441,6 +10560,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
